--- a/JoycePrint.Docs/Hosting Solutions/JoycePrint Site Hosting.xlsx
+++ b/JoycePrint.Docs/Hosting Solutions/JoycePrint Site Hosting.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\joyceprint\JoycePrint.Docs\Hosting Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ShortList" sheetId="2" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Version 1'!$B$3:$E$102</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="162">
   <si>
     <t>Markmonitor Inc</t>
   </si>
@@ -571,12 +571,33 @@
   </si>
   <si>
     <t>BEST</t>
+  </si>
+  <si>
+    <t>https://www.blacknight.com/minimus-hosting.html</t>
+  </si>
+  <si>
+    <t>http://www.winhost.com/hosting-plans/comparison.aspx</t>
+  </si>
+  <si>
+    <t>https://www.hostingireland.ie/windows-hosting.php#more_info</t>
+  </si>
+  <si>
+    <t>Call and ask</t>
+  </si>
+  <si>
+    <t>https://www.register365.com/web-hosting</t>
+  </si>
+  <si>
+    <t>https://www.digitalocean.com/solutions/dev-tools/</t>
+  </si>
+  <si>
+    <t>Thomas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
@@ -1167,54 +1188,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="26"/>
-    <col min="2" max="2" width="5.42578125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" style="26" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="1.42578125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" style="26" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="27"/>
-    <col min="17" max="17" width="15.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="26" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="27"/>
-    <col min="20" max="20" width="1.42578125" style="26" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="26" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="1.44140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.44140625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="27"/>
+    <col min="17" max="17" width="15.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="26" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="27"/>
+    <col min="20" max="20" width="1.44140625" style="26" customWidth="1"/>
+    <col min="21" max="21" width="7.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.109375" style="27" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.42578125" style="26" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="26"/>
+    <col min="24" max="24" width="1.44140625" style="26" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M2" s="28"/>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
         <v>152</v>
       </c>
@@ -1266,7 +1337,7 @@
       <c r="AD3" s="38"/>
       <c r="AE3" s="38"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1340,7 +1411,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>153</v>
       </c>
@@ -1407,7 +1478,7 @@
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
     </row>
-    <row r="6" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>154</v>
       </c>
@@ -1492,7 +1563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29">
         <v>3</v>
       </c>
@@ -1568,7 +1639,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29">
         <v>4</v>
       </c>
@@ -1618,7 +1689,7 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29">
         <v>5</v>
       </c>
@@ -1670,7 +1741,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C10" s="11" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1778,7 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +1815,7 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C12" s="11" t="s">
         <v>2</v>
       </c>
@@ -1781,7 +1852,7 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1889,7 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1926,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1963,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +2000,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C17" s="16" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +2059,7 @@
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
@@ -2035,7 +2106,7 @@
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C19" s="16" t="s">
         <v>10</v>
       </c>
@@ -2082,7 +2153,7 @@
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2190,7 @@
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C21" s="16" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2237,7 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C22" s="16" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2284,7 @@
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +2321,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
@@ -2297,7 +2368,7 @@
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
@@ -2334,7 +2405,7 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2452,7 @@
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>19</v>
       </c>
@@ -2418,7 +2489,7 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2526,7 @@
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>21</v>
       </c>
@@ -2492,7 +2563,7 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +2600,7 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
@@ -2576,7 +2647,7 @@
       <c r="AD31" s="16"/>
       <c r="AE31" s="16"/>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
@@ -2613,7 +2684,7 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C33" s="16" t="s">
         <v>26</v>
       </c>
@@ -2660,7 +2731,7 @@
       <c r="AD33" s="16"/>
       <c r="AE33" s="16"/>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C34" s="16" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2778,7 @@
       <c r="AD34" s="16"/>
       <c r="AE34" s="16"/>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C35" s="16" t="s">
         <v>28</v>
       </c>
@@ -2754,7 +2825,7 @@
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C36" s="16" t="s">
         <v>29</v>
       </c>
@@ -2801,7 +2872,7 @@
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C37" s="16" t="s">
         <v>31</v>
       </c>
@@ -2848,7 +2919,7 @@
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>32</v>
       </c>
@@ -2895,7 +2966,7 @@
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C39" s="11" t="s">
         <v>33</v>
       </c>
@@ -2932,7 +3003,7 @@
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C40" s="11" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +3040,7 @@
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C41" s="11" t="s">
         <v>39</v>
       </c>
@@ -3006,7 +3077,7 @@
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C42" s="11" t="s">
         <v>40</v>
       </c>
@@ -3043,7 +3114,7 @@
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C43" s="16" t="s">
         <v>41</v>
       </c>
@@ -3090,7 +3161,7 @@
       <c r="AD43" s="16"/>
       <c r="AE43" s="16"/>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C44" s="16" t="s">
         <v>42</v>
       </c>
@@ -3137,7 +3208,7 @@
       <c r="AD44" s="16"/>
       <c r="AE44" s="16"/>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C45" s="11" t="s">
         <v>43</v>
       </c>
@@ -3174,7 +3245,7 @@
       <c r="AD45" s="11"/>
       <c r="AE45" s="11"/>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C46" s="11" t="s">
         <v>44</v>
       </c>
@@ -3211,7 +3282,7 @@
       <c r="AD46" s="11"/>
       <c r="AE46" s="11"/>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C47" s="11" t="s">
         <v>45</v>
       </c>
@@ -3258,7 +3329,7 @@
       <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C48" s="16" t="s">
         <v>46</v>
       </c>
@@ -3305,7 +3376,7 @@
       <c r="AD48" s="16"/>
       <c r="AE48" s="16"/>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C49" s="11" t="s">
         <v>47</v>
       </c>
@@ -3342,7 +3413,7 @@
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C50" s="11" t="s">
         <v>48</v>
       </c>
@@ -3379,7 +3450,7 @@
       <c r="AD50" s="11"/>
       <c r="AE50" s="11"/>
     </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C51" s="16" t="s">
         <v>49</v>
       </c>
@@ -3426,7 +3497,7 @@
       <c r="AD51" s="16"/>
       <c r="AE51" s="16"/>
     </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C52" s="16" t="s">
         <v>50</v>
       </c>
@@ -3473,7 +3544,7 @@
       <c r="AD52" s="16"/>
       <c r="AE52" s="16"/>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C53" s="16" t="s">
         <v>51</v>
       </c>
@@ -3520,7 +3591,7 @@
       <c r="AD53" s="16"/>
       <c r="AE53" s="16"/>
     </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
@@ -3557,7 +3628,7 @@
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C55" s="16" t="s">
         <v>53</v>
       </c>
@@ -3604,7 +3675,7 @@
       <c r="AD55" s="16"/>
       <c r="AE55" s="16"/>
     </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C56" s="11" t="s">
         <v>54</v>
       </c>
@@ -3641,7 +3712,7 @@
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
     </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C57" s="16" t="s">
         <v>55</v>
       </c>
@@ -3688,7 +3759,7 @@
       <c r="AD57" s="16"/>
       <c r="AE57" s="16"/>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C58" s="16" t="s">
         <v>56</v>
       </c>
@@ -3735,7 +3806,7 @@
       <c r="AD58" s="16"/>
       <c r="AE58" s="16"/>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C59" s="11" t="s">
         <v>57</v>
       </c>
@@ -3772,7 +3843,7 @@
       <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C60" s="16" t="s">
         <v>58</v>
       </c>
@@ -3819,7 +3890,7 @@
       <c r="AD60" s="16"/>
       <c r="AE60" s="16"/>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C61" s="11" t="s">
         <v>59</v>
       </c>
@@ -3856,7 +3927,7 @@
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C62" s="11" t="s">
         <v>60</v>
       </c>
@@ -3893,7 +3964,7 @@
       <c r="AD62" s="11"/>
       <c r="AE62" s="11"/>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C63" s="11" t="s">
         <v>61</v>
       </c>
@@ -3930,7 +4001,7 @@
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
     </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C64" s="16" t="s">
         <v>62</v>
       </c>
@@ -3977,7 +4048,7 @@
       <c r="AD64" s="16"/>
       <c r="AE64" s="16"/>
     </row>
-    <row r="65" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C65" s="11" t="s">
         <v>63</v>
       </c>
@@ -4014,7 +4085,7 @@
       <c r="AD65" s="11"/>
       <c r="AE65" s="11"/>
     </row>
-    <row r="66" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C66" s="11" t="s">
         <v>64</v>
       </c>
@@ -4051,7 +4122,7 @@
       <c r="AD66" s="11"/>
       <c r="AE66" s="11"/>
     </row>
-    <row r="67" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C67" s="11" t="s">
         <v>66</v>
       </c>
@@ -4088,7 +4159,7 @@
       <c r="AD67" s="11"/>
       <c r="AE67" s="11"/>
     </row>
-    <row r="68" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C68" s="16" t="s">
         <v>67</v>
       </c>
@@ -4135,7 +4206,7 @@
       <c r="AD68" s="16"/>
       <c r="AE68" s="16"/>
     </row>
-    <row r="69" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C69" s="11" t="s">
         <v>68</v>
       </c>
@@ -4172,7 +4243,7 @@
       <c r="AD69" s="11"/>
       <c r="AE69" s="11"/>
     </row>
-    <row r="70" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C70" s="11" t="s">
         <v>69</v>
       </c>
@@ -4209,7 +4280,7 @@
       <c r="AD70" s="11"/>
       <c r="AE70" s="11"/>
     </row>
-    <row r="71" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C71" s="11" t="s">
         <v>70</v>
       </c>
@@ -4246,7 +4317,7 @@
       <c r="AD71" s="11"/>
       <c r="AE71" s="11"/>
     </row>
-    <row r="72" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C72" s="16" t="s">
         <v>71</v>
       </c>
@@ -4293,7 +4364,7 @@
       <c r="AD72" s="16"/>
       <c r="AE72" s="16"/>
     </row>
-    <row r="73" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C73" s="16" t="s">
         <v>72</v>
       </c>
@@ -4340,7 +4411,7 @@
       <c r="AD73" s="16"/>
       <c r="AE73" s="16"/>
     </row>
-    <row r="74" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C74" s="16" t="s">
         <v>73</v>
       </c>
@@ -4387,7 +4458,7 @@
       <c r="AD74" s="16"/>
       <c r="AE74" s="16"/>
     </row>
-    <row r="75" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C75" s="16" t="s">
         <v>74</v>
       </c>
@@ -4434,7 +4505,7 @@
       <c r="AD75" s="16"/>
       <c r="AE75" s="16"/>
     </row>
-    <row r="76" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C76" s="16" t="s">
         <v>75</v>
       </c>
@@ -4481,7 +4552,7 @@
       <c r="AD76" s="16"/>
       <c r="AE76" s="16"/>
     </row>
-    <row r="77" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C77" s="11" t="s">
         <v>76</v>
       </c>
@@ -4518,7 +4589,7 @@
       <c r="AD77" s="11"/>
       <c r="AE77" s="11"/>
     </row>
-    <row r="78" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C78" s="16" t="s">
         <v>77</v>
       </c>
@@ -4565,7 +4636,7 @@
       <c r="AD78" s="16"/>
       <c r="AE78" s="16"/>
     </row>
-    <row r="79" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C79" s="16" t="s">
         <v>78</v>
       </c>
@@ -4612,7 +4683,7 @@
       <c r="AD79" s="16"/>
       <c r="AE79" s="16"/>
     </row>
-    <row r="80" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C80" s="11" t="s">
         <v>79</v>
       </c>
@@ -4649,7 +4720,7 @@
       <c r="AD80" s="11"/>
       <c r="AE80" s="11"/>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C81" s="16" t="s">
         <v>80</v>
       </c>
@@ -4696,7 +4767,7 @@
       <c r="AD81" s="16"/>
       <c r="AE81" s="16"/>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C82" s="16" t="s">
         <v>146</v>
       </c>
@@ -4743,7 +4814,7 @@
       <c r="AD82" s="16"/>
       <c r="AE82" s="16"/>
     </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C83" s="16" t="s">
         <v>81</v>
       </c>
@@ -4790,7 +4861,7 @@
       <c r="AD83" s="16"/>
       <c r="AE83" s="16"/>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C84" s="11" t="s">
         <v>82</v>
       </c>
@@ -4827,7 +4898,7 @@
       <c r="AD84" s="11"/>
       <c r="AE84" s="11"/>
     </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C85" s="16" t="s">
         <v>83</v>
       </c>
@@ -4874,7 +4945,7 @@
       <c r="AD85" s="16"/>
       <c r="AE85" s="16"/>
     </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C86" s="11" t="s">
         <v>84</v>
       </c>
@@ -4911,7 +4982,7 @@
       <c r="AD86" s="11"/>
       <c r="AE86" s="11"/>
     </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C87" s="16" t="s">
         <v>85</v>
       </c>
@@ -4958,7 +5029,7 @@
       <c r="AD87" s="16"/>
       <c r="AE87" s="16"/>
     </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C88" s="11" t="s">
         <v>86</v>
       </c>
@@ -4995,7 +5066,7 @@
       <c r="AD88" s="11"/>
       <c r="AE88" s="11"/>
     </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C89" s="11" t="s">
         <v>87</v>
       </c>
@@ -5032,7 +5103,7 @@
       <c r="AD89" s="11"/>
       <c r="AE89" s="11"/>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C90" s="11" t="s">
         <v>88</v>
       </c>
@@ -5069,7 +5140,7 @@
       <c r="AD90" s="11"/>
       <c r="AE90" s="11"/>
     </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C91" s="16" t="s">
         <v>89</v>
       </c>
@@ -5116,7 +5187,7 @@
       <c r="AD91" s="16"/>
       <c r="AE91" s="16"/>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C92" s="16" t="s">
         <v>90</v>
       </c>
@@ -5163,7 +5234,7 @@
       <c r="AD92" s="16"/>
       <c r="AE92" s="16"/>
     </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C93" s="11" t="s">
         <v>91</v>
       </c>
@@ -5200,7 +5271,7 @@
       <c r="AD93" s="11"/>
       <c r="AE93" s="11"/>
     </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C94" s="16" t="s">
         <v>92</v>
       </c>
@@ -5247,7 +5318,7 @@
       <c r="AD94" s="16"/>
       <c r="AE94" s="16"/>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C95" s="16" t="s">
         <v>93</v>
       </c>
@@ -5294,7 +5365,7 @@
       <c r="AD95" s="16"/>
       <c r="AE95" s="16"/>
     </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C96" s="11" t="s">
         <v>94</v>
       </c>
@@ -5331,7 +5402,7 @@
       <c r="AD96" s="11"/>
       <c r="AE96" s="11"/>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C97" s="11" t="s">
         <v>95</v>
       </c>
@@ -5368,7 +5439,7 @@
       <c r="AD97" s="11"/>
       <c r="AE97" s="11"/>
     </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C98" s="11" t="s">
         <v>96</v>
       </c>
@@ -5405,7 +5476,7 @@
       <c r="AD98" s="11"/>
       <c r="AE98" s="11"/>
     </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C99" s="11" t="s">
         <v>97</v>
       </c>
@@ -5442,7 +5513,7 @@
       <c r="AD99" s="11"/>
       <c r="AE99" s="11"/>
     </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C100" s="16" t="s">
         <v>98</v>
       </c>
@@ -5489,7 +5560,7 @@
       <c r="AD100" s="16"/>
       <c r="AE100" s="16"/>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C101" s="11" t="s">
         <v>99</v>
       </c>
@@ -5526,7 +5597,7 @@
       <c r="AD101" s="11"/>
       <c r="AE101" s="11"/>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C102" s="11" t="s">
         <v>100</v>
       </c>
@@ -5582,27 +5653,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JoycePrint.Docs/Hosting Solutions/JoycePrint Site Hosting.xlsx
+++ b/JoycePrint.Docs/Hosting Solutions/JoycePrint Site Hosting.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
-    <sheet name="ShortList" sheetId="2" r:id="rId1"/>
-    <sheet name="Version 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Version 2" sheetId="3" r:id="rId1"/>
+    <sheet name="ShortList" sheetId="2" r:id="rId2"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Version 1'!$B$3:$E$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Version 1'!$B$3:$E$102</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="183">
   <si>
     <t>Markmonitor Inc</t>
   </si>
@@ -592,6 +592,69 @@
   </si>
   <si>
     <t>Thomas</t>
+  </si>
+  <si>
+    <t>Hosting Solution</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>----------</t>
+  </si>
+  <si>
+    <t>https://hosting.asp.net/hosting/home</t>
+  </si>
+  <si>
+    <t>http://www.windowshostingbulletin.com/2014/04/top-5-aspnet-web-hosting-companies-in.html</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>-------</t>
+  </si>
+  <si>
+    <t>Long List</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>http://www.winhost.com/hosting-plans/comparison.aspx [ DATA CENTER - LA ]</t>
+  </si>
+  <si>
+    <t>https://www.interserver.net/webhosting/windows-hosting-details.html [ DATA CENTER - ?? ]</t>
+  </si>
+  <si>
+    <t>https://www.liquidweb.com/solutions/windows.html [ DATA CENTER - AMSTERDAM ]</t>
+  </si>
+  <si>
+    <t>http://www.smarterasp.net/hosting_plans [ DATA CENTER - LA ]</t>
+  </si>
+  <si>
+    <t>https://www.tmdhosting.com/windows-hosting.html</t>
+  </si>
+  <si>
+    <t>https://www.a2hosting.com/web-hosting/windows [ DATA CENTER - AMSTERDAM ]</t>
+  </si>
+  <si>
+    <t>http://hostforlife.eu/ASPNET-Shared-European-Hosting-Plans [ DATA CENTER - LONDON ]</t>
+  </si>
+  <si>
+    <t>Short List</t>
+  </si>
+  <si>
+    <t>5 MySQL / 5 MS SQL</t>
+  </si>
+  <si>
+    <t>Free SSL Cert ( Lets Encrypt )</t>
+  </si>
+  <si>
+    <t>Server is in michigan</t>
+  </si>
+  <si>
+    <t>They want to talk via chat [ NO !!!!! ]</t>
   </si>
 </sst>
 </file>
@@ -1189,9 +1252,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1237,7 +1473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE102"/>
   <sheetViews>
@@ -5651,16 +5887,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>